--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_18-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_18-21.xlsx
@@ -44,6 +44,9 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANOXICAM 20MG 10 SUPP.</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -110,6 +113,12 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>4:6</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -143,6 +152,9 @@
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
   </si>
   <si>
     <t>PRAVOTIN 100MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>PREXAL 5 MG 30 CAPLETS</t>
   </si>
   <si>
     <t>PRONTO PLUS 20 TAB.</t>
@@ -989,11 +1004,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1015,11 +1030,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1035,17 +1050,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1053,7 +1068,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1061,17 +1076,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1087,17 +1102,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>42.899999999999999</v>
+        <v>42</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>0.14999999999999999</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1105,7 +1120,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1113,17 +1128,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>105</v>
+        <v>42.899999999999999</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>0.5</v>
+        <v>0.14999999999999999</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1139,17 +1154,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>349</v>
+        <v>105</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1157,7 +1172,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1165,17 +1180,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1183,7 +1198,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1191,17 +1206,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1223,11 +1238,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>-0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1243,17 +1258,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>0.33000000000000002</v>
+        <v>-0.33000000000000002</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1261,7 +1276,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1269,17 +1284,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1295,13 +1310,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1321,17 +1336,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1339,7 +1354,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1347,17 +1362,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1365,7 +1380,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1373,17 +1388,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1391,7 +1406,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1399,17 +1414,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1417,7 +1432,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1425,7 +1440,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1435,7 +1450,7 @@
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1443,7 +1458,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1451,17 +1466,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>139.68000000000001</v>
+        <v>24</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1483,11 +1498,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1503,17 +1518,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>26.670000000000002</v>
+        <v>139.68000000000001</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1529,17 +1544,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>0.5</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1547,7 +1562,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1555,17 +1570,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>35</v>
+        <v>26.670000000000002</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1587,11 +1602,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1607,17 +1622,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>1.6699999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1625,7 +1640,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1633,17 +1648,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>63.240000000000002</v>
+        <v>35</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1665,11 +1680,11 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1685,17 +1700,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>50.439999999999998</v>
+        <v>80</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.5</v>
+        <v>1.6699999999999999</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1703,7 +1718,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1711,17 +1726,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>0</v>
+        <v>63.240000000000002</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1729,7 +1744,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1737,17 +1752,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1763,17 +1778,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>40.479999999999997</v>
+        <v>50.439999999999998</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1789,17 +1804,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1815,17 +1830,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1833,7 +1848,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1847,11 +1862,11 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>17</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1859,7 +1874,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1867,13 +1882,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1885,7 +1900,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1893,17 +1908,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1911,7 +1926,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1919,17 +1934,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1945,17 +1960,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1977,7 +1992,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -1997,17 +2012,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2015,7 +2030,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2023,13 +2038,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
@@ -2041,7 +2056,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2049,17 +2064,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2067,7 +2082,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2075,17 +2090,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2101,17 +2116,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>332</v>
+        <v>12.5</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2127,17 +2142,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2153,17 +2168,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2171,7 +2186,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2179,13 +2194,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>31</v>
+        <v>332</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
@@ -2205,17 +2220,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2223,7 +2238,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2231,17 +2246,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2249,7 +2264,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2257,13 +2272,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2275,7 +2290,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2283,17 +2298,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>153.59999999999999</v>
+        <v>31</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2309,17 +2324,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2327,7 +2342,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2335,17 +2350,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2353,7 +2368,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2361,17 +2376,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>169.19999999999999</v>
+        <v>153.59999999999999</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>0.29999999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2387,13 +2402,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
@@ -2413,13 +2428,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
@@ -2439,17 +2454,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>73.319999999999993</v>
+        <v>20</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2465,17 +2480,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>45.5</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2483,7 +2498,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2491,13 +2506,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2509,7 +2524,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2517,17 +2532,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2543,13 +2558,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>60</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
@@ -2561,7 +2576,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2569,17 +2584,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>34</v>
+        <v>45.5</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>0.66000000000000003</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2587,7 +2602,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2595,17 +2610,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2613,7 +2628,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2621,17 +2636,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2639,7 +2654,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2647,17 +2662,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2679,11 +2694,11 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2699,17 +2714,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2725,17 +2740,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2743,7 +2758,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2751,13 +2766,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
@@ -2769,7 +2784,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2777,13 +2792,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -2803,17 +2818,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2821,7 +2836,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2829,51 +2844,155 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" ht="25.5" customHeight="1">
+      <c r="A78" s="6">
+        <v>75</v>
+      </c>
+      <c t="s" r="B78" s="7">
+        <v>109</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c t="s" r="H78" s="8">
+        <v>108</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="9">
+        <v>4</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c r="N78" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" ht="24.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>76</v>
+      </c>
+      <c t="s" r="B79" s="7">
+        <v>110</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c t="s" r="H79" s="8">
+        <v>78</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9">
+        <v>40</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c r="N79" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="25.5" customHeight="1">
-      <c r="K78" s="11">
-        <v>4199.5299999999997</v>
-      </c>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-    </row>
-    <row r="79" ht="17.25" customHeight="1">
-      <c t="s" r="A79" s="12">
-        <v>109</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c t="s" r="F79" s="13">
-        <v>110</v>
-      </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
-      <c t="s" r="I79" s="15">
+    <row r="80" ht="25.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>77</v>
+      </c>
+      <c t="s" r="B80" s="7">
         <v>111</v>
       </c>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c t="s" r="H80" s="8">
+        <v>112</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9">
+        <v>30</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c r="N80" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" ht="24.75" customHeight="1">
+      <c r="A81" s="6">
+        <v>78</v>
+      </c>
+      <c t="s" r="B81" s="7">
+        <v>113</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c t="s" r="H81" s="8">
+        <v>58</v>
+      </c>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="9">
+        <v>27</v>
+      </c>
+      <c r="M81" s="9"/>
+      <c r="N81" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" ht="26.25" customHeight="1">
+      <c r="K82" s="11">
+        <v>4535.5299999999997</v>
+      </c>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="12">
+        <v>114</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c t="s" r="F83" s="13">
+        <v>115</v>
+      </c>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14"/>
+      <c t="s" r="I83" s="15">
+        <v>116</v>
+      </c>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="233">
+  <mergeCells count="245">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3103,10 +3222,22 @@
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="I83:N83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
